--- a/Tests/UnitTests/Features/MagicCalculation/BusinessLogic/MagicCalculatorTestData.xlsx
+++ b/Tests/UnitTests/Features/MagicCalculation/BusinessLogic/MagicCalculatorTestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_\work\NmhNet\Tests\UnitTests\Features\MagicCalculation\BusinessLogic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BB83FC4-4DC9-4889-BA1D-2B5DC8B6DBFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49E39B11-8FD6-4CD0-B8EC-CB1FDBD0D76D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{2119A043-D451-46B7-B6EF-9CA62BCBE172}"/>
   </bookViews>
@@ -372,60 +372,75 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4D5B525-6042-4546-83A7-ACA7DA135618}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="C1" sqref="C1:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="21.73046875" customWidth="1"/>
+    <col min="3" max="3" width="21.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1">
         <v>42</v>
       </c>
       <c r="B1">
-        <f>ROUND(POWER(LN(A1), 1/3), 5)</f>
-        <v>1.5519099999999999</v>
+        <v>2</v>
+      </c>
+      <c r="C1">
+        <f>ROUND(POWER(LN(A1/B1), 1/3), 5)</f>
+        <v>1.4493499999999999</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <f t="shared" ref="B2:B5" si="0">ROUND(POWER(LN(A2), 1/3), 5)</f>
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <f t="shared" ref="C2:C5" si="0">ROUND(POWER(LN(A2/B2), 1/3), 5)</f>
+        <v>-0.88500000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>0.74014999999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
         <f t="shared" si="0"/>
         <v>0.88500000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <f t="shared" si="0"/>
-        <v>1.0318499999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <f t="shared" si="0"/>
-        <v>1.11503</v>
       </c>
     </row>
   </sheetData>
